--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1239"/>
+  <dimension ref="A1:G1162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29197,10 +29197,8 @@
           <t>100</t>
         </is>
       </c>
-      <c r="G1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -29226,10 +29224,8 @@
       </c>
       <c r="E1103" t="inlineStr"/>
       <c r="F1103" t="inlineStr"/>
-      <c r="G1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -29255,10 +29251,8 @@
       </c>
       <c r="E1104" t="inlineStr"/>
       <c r="F1104" t="inlineStr"/>
-      <c r="G1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -29276,10 +29270,8 @@
       <c r="D1105" t="inlineStr"/>
       <c r="E1105" t="inlineStr"/>
       <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -29305,10 +29297,8 @@
       </c>
       <c r="E1106" t="inlineStr"/>
       <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -29343,10 +29333,8 @@
       </c>
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
-      <c r="G1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -29368,10 +29356,8 @@
       </c>
       <c r="E1109" t="inlineStr"/>
       <c r="F1109" t="inlineStr"/>
-      <c r="G1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -29393,10 +29379,8 @@
       </c>
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -29418,10 +29402,8 @@
       </c>
       <c r="E1111" t="inlineStr"/>
       <c r="F1111" t="inlineStr"/>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -29443,10 +29425,8 @@
       </c>
       <c r="E1112" t="inlineStr"/>
       <c r="F1112" t="inlineStr"/>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -29476,10 +29456,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -29505,10 +29483,8 @@
         </is>
       </c>
       <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1115">
@@ -29530,10 +29506,8 @@
       </c>
       <c r="E1115" t="inlineStr"/>
       <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -29555,10 +29529,8 @@
       </c>
       <c r="E1116" t="inlineStr"/>
       <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -29580,10 +29552,8 @@
       </c>
       <c r="E1117" t="inlineStr"/>
       <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -29605,10 +29575,8 @@
       </c>
       <c r="E1118" t="inlineStr"/>
       <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -29630,10 +29598,8 @@
       </c>
       <c r="E1119" t="inlineStr"/>
       <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -29655,10 +29621,8 @@
       </c>
       <c r="E1120" t="inlineStr"/>
       <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1121">
@@ -29680,10 +29644,8 @@
       </c>
       <c r="E1121" t="inlineStr"/>
       <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -29705,10 +29667,8 @@
       </c>
       <c r="E1122" t="inlineStr"/>
       <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -29730,10 +29690,8 @@
       </c>
       <c r="E1123" t="inlineStr"/>
       <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -29751,10 +29709,8 @@
       <c r="D1124" t="inlineStr"/>
       <c r="E1124" t="inlineStr"/>
       <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -29776,10 +29732,8 @@
       </c>
       <c r="E1125" t="inlineStr"/>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -29797,10 +29751,8 @@
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr"/>
       <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -29843,10 +29795,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1129">
@@ -29876,10 +29826,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -29909,10 +29857,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1131">
@@ -29942,10 +29888,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -29975,10 +29919,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1133">
@@ -30004,10 +29946,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1134">
@@ -30037,10 +29977,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -30070,10 +30008,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -30099,10 +30035,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -30120,10 +30054,8 @@
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1137" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1138">
@@ -30145,10 +30077,8 @@
       </c>
       <c r="E1138" t="inlineStr"/>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -30170,10 +30100,8 @@
       </c>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -30195,10 +30123,8 @@
       </c>
       <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1141">
@@ -30216,10 +30142,8 @@
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr"/>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -30241,10 +30165,8 @@
       </c>
       <c r="E1142" t="inlineStr"/>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1143">
@@ -30266,10 +30188,8 @@
       </c>
       <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1144">
@@ -30287,10 +30207,8 @@
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr"/>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1145">
@@ -30312,10 +30230,8 @@
       </c>
       <c r="E1145" t="inlineStr"/>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -30345,10 +30261,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1146" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1147">
@@ -30370,24 +30284,30 @@
       </c>
       <c r="E1147" t="inlineStr"/>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Philly Fed Business ConditionsAPR</t>
+        </is>
+      </c>
       <c r="C1148" t="inlineStr"/>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
@@ -30397,28 +30317,16 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -30430,28 +30338,16 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -30463,25 +30359,13 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
           <t>3</t>
@@ -30496,21 +30380,13 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
+      <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
           <t>3</t>
@@ -30520,26 +30396,18 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -30549,26 +30417,18 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -30578,30 +30438,18 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr"/>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -30611,45 +30459,33 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="F1156" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+      <c r="D1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr"/>
+      <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr"/>
@@ -30658,33 +30494,29 @@
       <c r="F1157" t="inlineStr"/>
       <c r="G1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr"/>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -30694,30 +30526,18 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1159" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="D1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr"/>
+      <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr">
         <is>
           <t>3</t>
@@ -30727,59 +30547,31 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelAPR</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr"/>
       <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F1160" t="inlineStr">
-        <is>
-          <t>61.4</t>
-        </is>
-      </c>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr"/>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr"/>
     </row>
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -30789,12 +30581,12 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr"/>
@@ -30803,1743 +30595,6 @@
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr"/>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:40 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Export Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Import Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Export Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/12</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr">
-        <is>
-          <t>-1.057M</t>
-        </is>
-      </c>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationMAR</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1239"/>
+  <dimension ref="A1:G1168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29337,10 +29337,8 @@
       </c>
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
-      <c r="G1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -29366,10 +29364,8 @@
       </c>
       <c r="E1109" t="inlineStr"/>
       <c r="F1109" t="inlineStr"/>
-      <c r="G1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -29395,10 +29391,8 @@
       </c>
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -29424,10 +29418,8 @@
       </c>
       <c r="E1111" t="inlineStr"/>
       <c r="F1111" t="inlineStr"/>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -29453,10 +29445,8 @@
       </c>
       <c r="E1112" t="inlineStr"/>
       <c r="F1112" t="inlineStr"/>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -29490,10 +29480,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -29519,10 +29507,8 @@
         </is>
       </c>
       <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1115">
@@ -29548,10 +29534,8 @@
         </is>
       </c>
       <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -29573,10 +29557,8 @@
       </c>
       <c r="E1116" t="inlineStr"/>
       <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -29598,10 +29580,8 @@
       </c>
       <c r="E1117" t="inlineStr"/>
       <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -29623,10 +29603,8 @@
       </c>
       <c r="E1118" t="inlineStr"/>
       <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -29652,10 +29630,8 @@
         </is>
       </c>
       <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -29677,10 +29653,8 @@
       </c>
       <c r="E1120" t="inlineStr"/>
       <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1121">
@@ -29702,10 +29676,8 @@
       </c>
       <c r="E1121" t="inlineStr"/>
       <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -29727,10 +29699,8 @@
       </c>
       <c r="E1122" t="inlineStr"/>
       <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -29752,10 +29722,8 @@
       </c>
       <c r="E1123" t="inlineStr"/>
       <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -29773,10 +29741,8 @@
       <c r="D1124" t="inlineStr"/>
       <c r="E1124" t="inlineStr"/>
       <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -29798,10 +29764,8 @@
       </c>
       <c r="E1125" t="inlineStr"/>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -29819,10 +29783,8 @@
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr"/>
       <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -29865,10 +29827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1129">
@@ -29898,10 +29858,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -29931,10 +29889,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1131">
@@ -29964,10 +29920,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -29997,10 +29951,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1133">
@@ -30026,10 +29978,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1134">
@@ -30059,10 +30009,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -30092,10 +30040,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -30121,10 +30067,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -30142,10 +30086,8 @@
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1137" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1138">
@@ -30171,10 +30113,8 @@
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -30196,10 +30136,8 @@
       </c>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -30221,10 +30159,8 @@
       </c>
       <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1141">
@@ -30242,10 +30178,8 @@
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr"/>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -30267,10 +30201,8 @@
       </c>
       <c r="E1142" t="inlineStr"/>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1143">
@@ -30292,10 +30224,8 @@
       </c>
       <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1144">
@@ -30313,10 +30243,8 @@
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr"/>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1145">
@@ -30338,10 +30266,8 @@
       </c>
       <c r="E1145" t="inlineStr"/>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -30371,10 +30297,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1146" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1147">
@@ -30396,24 +30320,34 @@
       </c>
       <c r="E1147" t="inlineStr"/>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelMAR</t>
+        </is>
+      </c>
       <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
@@ -30423,28 +30357,24 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr"/>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-5.3%</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30456,25 +30386,13 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>Initial Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
           <t>2</t>
@@ -30489,28 +30407,20 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr"/>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30522,19 +30432,15 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
+      <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>148.1</t>
+          <t>1950K</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
@@ -30551,21 +30457,13 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -30580,21 +30478,17 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr"/>
       <c r="D1154" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -30609,25 +30503,17 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr"/>
       <c r="D1155" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E1155" t="inlineStr"/>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -30637,80 +30523,72 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="F1156" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+          <t>19.7</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr"/>
+      <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
       <c r="E1157" t="inlineStr"/>
       <c r="F1157" t="inlineStr"/>
       <c r="G1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr"/>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -30720,30 +30598,18 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1159" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="D1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr"/>
+      <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr">
         <is>
           <t>3</t>
@@ -30753,30 +30619,18 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F1160" t="inlineStr">
-        <is>
-          <t>61.4</t>
-        </is>
-      </c>
+      <c r="D1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr"/>
+      <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -30786,26 +30640,18 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -30815,12 +30661,12 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr"/>
@@ -30829,27 +30675,23 @@
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
+      <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
@@ -30866,13 +30708,13 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr"/>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1164" t="inlineStr"/>
@@ -30886,20 +30728,28 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetAPR/16</t>
+        </is>
+      </c>
       <c r="C1165" t="inlineStr"/>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
+          <t>Friday April 18 2025</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -30912,1739 +30762,40 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
+        </is>
+      </c>
       <c r="C1167" t="inlineStr"/>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr"/>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1168" t="inlineStr"/>
       <c r="G1168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>4.175%</t>
-        </is>
-      </c>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>4.000%</t>
-        </is>
-      </c>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:40 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Export Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Import Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Export Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/12</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr">
-        <is>
-          <t>3.945%</t>
-        </is>
-      </c>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr">
-        <is>
-          <t>-1.057M</t>
-        </is>
-      </c>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>6.61%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationMAR</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1239"/>
+  <dimension ref="A1:G1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29337,10 +29337,8 @@
       </c>
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
-      <c r="G1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -29366,10 +29364,8 @@
       </c>
       <c r="E1109" t="inlineStr"/>
       <c r="F1109" t="inlineStr"/>
-      <c r="G1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -29395,10 +29391,8 @@
       </c>
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -29424,10 +29418,8 @@
       </c>
       <c r="E1111" t="inlineStr"/>
       <c r="F1111" t="inlineStr"/>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -29453,10 +29445,8 @@
       </c>
       <c r="E1112" t="inlineStr"/>
       <c r="F1112" t="inlineStr"/>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -29490,10 +29480,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -29523,10 +29511,8 @@
         </is>
       </c>
       <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1115">
@@ -29556,10 +29542,8 @@
         </is>
       </c>
       <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -29585,10 +29569,8 @@
       </c>
       <c r="E1116" t="inlineStr"/>
       <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -29614,10 +29596,8 @@
       </c>
       <c r="E1117" t="inlineStr"/>
       <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -29643,10 +29623,8 @@
       </c>
       <c r="E1118" t="inlineStr"/>
       <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -29676,10 +29654,8 @@
         </is>
       </c>
       <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -29705,10 +29681,8 @@
       </c>
       <c r="E1120" t="inlineStr"/>
       <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1121">
@@ -29734,10 +29708,8 @@
       </c>
       <c r="E1121" t="inlineStr"/>
       <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -29763,10 +29735,8 @@
       </c>
       <c r="E1122" t="inlineStr"/>
       <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -29792,10 +29762,8 @@
       </c>
       <c r="E1123" t="inlineStr"/>
       <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -29813,10 +29781,8 @@
       <c r="D1124" t="inlineStr"/>
       <c r="E1124" t="inlineStr"/>
       <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -29842,10 +29808,8 @@
       </c>
       <c r="E1125" t="inlineStr"/>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -29863,10 +29827,8 @@
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr"/>
       <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -29909,10 +29871,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1129">
@@ -29942,10 +29902,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -29975,10 +29933,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1131">
@@ -30008,10 +29964,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -30041,10 +29995,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1133">
@@ -30070,10 +30022,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1134">
@@ -30103,10 +30053,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -30136,10 +30084,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -30165,10 +30111,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -30186,10 +30130,8 @@
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1137" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1138">
@@ -30215,10 +30157,8 @@
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -30240,10 +30180,8 @@
       </c>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -30265,10 +30203,8 @@
       </c>
       <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1141">
@@ -30286,10 +30222,8 @@
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr"/>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -30311,10 +30245,8 @@
       </c>
       <c r="E1142" t="inlineStr"/>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1143">
@@ -30336,10 +30268,8 @@
       </c>
       <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1144">
@@ -30357,10 +30287,8 @@
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr"/>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1145">
@@ -30382,10 +30310,8 @@
       </c>
       <c r="E1145" t="inlineStr"/>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -30415,10 +30341,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1146" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1147">
@@ -30440,24 +30364,38 @@
       </c>
       <c r="E1147" t="inlineStr"/>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Building Permits PrelMAR</t>
+        </is>
+      </c>
       <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>1.459M</t>
+        </is>
+      </c>
       <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr">
+        <is>
+          <t>1.4M</t>
+        </is>
+      </c>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
@@ -30467,23 +30405,19 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Housing StartsMAR</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr"/>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>1.501M</t>
+        </is>
+      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.42M</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
@@ -30500,25 +30434,17 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>Building Permits MoM PrelMAR</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
           <t>2</t>
@@ -30533,28 +30459,24 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr"/>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr"/>
       <c r="F1151" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-5.3%</t>
         </is>
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30566,24 +30488,16 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Initial Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
+      <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30595,24 +30509,20 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30624,19 +30534,15 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1950K</t>
         </is>
       </c>
       <c r="G1154" t="inlineStr">
@@ -30653,25 +30559,13 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr"/>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -30681,80 +30575,72 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="F1156" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr"/>
+      <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
       <c r="E1157" t="inlineStr"/>
       <c r="F1157" t="inlineStr"/>
       <c r="G1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr"/>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -30764,30 +30650,22 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr"/>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1159" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="E1159" t="inlineStr"/>
+      <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr">
         <is>
           <t>3</t>
@@ -30797,30 +30675,22 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F1160" t="inlineStr">
-        <is>
-          <t>61.4</t>
-        </is>
-      </c>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E1160" t="inlineStr"/>
+      <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -30830,26 +30700,18 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -30859,12 +30721,12 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr"/>
@@ -30873,27 +30735,23 @@
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
+      <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
@@ -30905,20 +30763,16 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
+      <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
@@ -30930,88 +30784,96 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateAPR/17</t>
+        </is>
+      </c>
       <c r="C1165" t="inlineStr"/>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>5-Year TIPS Auction</t>
+        </is>
+      </c>
       <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>2.121%</t>
+        </is>
+      </c>
       <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetAPR/16</t>
+        </is>
+      </c>
       <c r="C1167" t="inlineStr"/>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr"/>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr"/>
       <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>4.175%</t>
-        </is>
-      </c>
+      <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr">
@@ -31023,1708 +30885,19 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>4.000%</t>
-        </is>
-      </c>
+      <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr"/>
       <c r="F1170" t="inlineStr"/>
       <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:40 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Export Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Import Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Export Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/12</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr">
-        <is>
-          <t>3.945%</t>
-        </is>
-      </c>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr">
-        <is>
-          <t>-1.057M</t>
-        </is>
-      </c>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>6.61%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationMAR</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr">
-        <is>
-          <t>2.553M</t>
-        </is>
-      </c>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr">
-        <is>
-          <t>-1.6M</t>
-        </is>
-      </c>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr">
         <is>
           <t>3</t>
         </is>
